--- a/Environmental_data/Data_sources.xlsx
+++ b/Environmental_data/Data_sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simondellicour/Dropbox/Temp_MBP3/ENMs/H5Nx_Maria_MOOD/Environmental_data/Original_rasters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simondellicour/Dropbox/Temp_MBP3/ENMs/H5Nx_risk_mapping/Environmental_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739CE1DE-C27A-EA4C-967E-1CD0076D3156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AC4C1C-523A-7246-87E1-90BA69125172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{9FFCEB50-BAD5-1949-BF18-CAEA8DF5A26B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="289">
   <si>
     <t>kind_of_variable</t>
   </si>
@@ -897,6 +897,12 @@
   </si>
   <si>
     <t>mean2</t>
+  </si>
+  <si>
+    <t>provided by Jean Artois</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7554/eLife.19571</t>
   </si>
 </sst>
 </file>
@@ -1259,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EFB694-9B17-384C-9127-EE2DBF0D1002}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1840,14 +1846,20 @@
       <c r="C21" t="s">
         <v>187</v>
       </c>
+      <c r="D21" t="s">
+        <v>286</v>
+      </c>
       <c r="E21" t="s">
         <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">

--- a/Environmental_data/Data_sources.xlsx
+++ b/Environmental_data/Data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simondellicour/Dropbox/Temp_MBP3/ENMs/H5Nx_risk_mapping/Environmental_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AC4C1C-523A-7246-87E1-90BA69125172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB98A92-4516-0047-B99B-FD76F5ED0B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{9FFCEB50-BAD5-1949-BF18-CAEA8DF5A26B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="291">
   <si>
     <t>kind_of_variable</t>
   </si>
@@ -755,9 +755,6 @@
     <t>duck population density 2015</t>
   </si>
   <si>
-    <t>duck_population_density_2015</t>
-  </si>
-  <si>
     <t>extensive_chicken_population_density_2015</t>
   </si>
   <si>
@@ -903,6 +900,15 @@
   </si>
   <si>
     <t>https://doi.org/10.7554/eLife.19571</t>
+  </si>
+  <si>
+    <t>duck population density 2010</t>
+  </si>
+  <si>
+    <t>duck_population_density_2010</t>
+  </si>
+  <si>
+    <t>~/Dropbox/AI_MOOD_Covariates/bird_data/poultry_glw3/Globalducksdistribution2015dataverse_files/5_Dk_2010_Da.tif</t>
   </si>
 </sst>
 </file>
@@ -1263,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EFB694-9B17-384C-9127-EE2DBF0D1002}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="F67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1294,7 +1300,7 @@
         <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>143</v>
@@ -1320,16 +1326,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -1349,19 +1355,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -1370,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1378,16 +1381,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1407,16 +1410,28 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>241</v>
+      </c>
+      <c r="C5" t="s">
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1424,13 +1439,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -1441,13 +1456,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -1458,13 +1473,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -1475,25 +1490,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -1504,48 +1507,45 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" t="s">
+        <v>283</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1553,19 +1553,19 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
@@ -1585,19 +1585,19 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
@@ -1617,19 +1617,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
@@ -1649,19 +1649,19 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
@@ -1681,19 +1681,19 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
@@ -1713,19 +1713,19 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
@@ -1745,19 +1745,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
@@ -1777,19 +1777,19 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
@@ -1809,19 +1809,19 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1841,25 +1841,31 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
         <v>8</v>
       </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
       <c r="J21" t="s">
-        <v>288</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1867,51 +1873,45 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>187</v>
+      </c>
+      <c r="D22" t="s">
+        <v>285</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" t="s">
-        <v>286</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" t="s">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1919,19 +1919,19 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
         <v>47</v>
@@ -1951,19 +1951,19 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -1983,19 +1983,19 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
         <v>47</v>
@@ -2015,19 +2015,19 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
         <v>47</v>
@@ -2047,19 +2047,19 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
         <v>47</v>
@@ -2079,19 +2079,19 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
         <v>47</v>
@@ -2111,16 +2111,19 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D30" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G30" t="s">
         <v>47</v>
@@ -2140,16 +2143,16 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
         <v>47</v>
@@ -2169,16 +2172,16 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G32" t="s">
         <v>47</v>
@@ -2198,16 +2201,16 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G33" t="s">
         <v>47</v>
@@ -2227,16 +2230,16 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
@@ -2256,16 +2259,16 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G35" t="s">
         <v>47</v>
@@ -2285,16 +2288,16 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G36" t="s">
         <v>47</v>
@@ -2302,22 +2305,28 @@
       <c r="H36" t="s">
         <v>8</v>
       </c>
+      <c r="I36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -2325,31 +2334,22 @@
       <c r="H37" t="s">
         <v>8</v>
       </c>
-      <c r="I37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D38" t="s">
-        <v>286</v>
-      </c>
-      <c r="E38" t="s">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="F38" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="G38" t="s">
         <v>47</v>
@@ -2369,19 +2369,19 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="D39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G39" t="s">
         <v>47</v>
@@ -2401,19 +2401,19 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G40" t="s">
         <v>47</v>
@@ -2433,19 +2433,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G41" t="s">
         <v>47</v>
@@ -2465,19 +2465,19 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G42" t="s">
         <v>47</v>
@@ -2497,19 +2497,19 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F43" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
@@ -2529,19 +2529,19 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G44" t="s">
         <v>47</v>
@@ -2561,19 +2561,19 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G45" t="s">
         <v>47</v>
@@ -2593,16 +2593,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="D46" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G46" t="s">
         <v>47</v>
@@ -2622,16 +2625,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F47" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G47" t="s">
         <v>47</v>
@@ -2651,16 +2654,16 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G48" t="s">
         <v>47</v>
@@ -2680,16 +2683,16 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F49" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G49" t="s">
         <v>47</v>
@@ -2709,16 +2712,16 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F50" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G50" t="s">
         <v>47</v>
@@ -2738,16 +2741,16 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F51" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G51" t="s">
         <v>47</v>
@@ -2767,16 +2770,16 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G52" t="s">
         <v>47</v>
@@ -2796,16 +2799,16 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F53" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G53" t="s">
         <v>47</v>
@@ -2825,25 +2828,28 @@
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="D54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="G54" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="J54" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2851,16 +2857,16 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G55" t="s">
         <v>65</v>
@@ -2877,16 +2883,16 @@
         <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G56" t="s">
         <v>65</v>
@@ -2903,16 +2909,16 @@
         <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G57" t="s">
         <v>65</v>
@@ -2929,16 +2935,16 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G58" t="s">
         <v>65</v>
@@ -2955,16 +2961,16 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G59" t="s">
         <v>65</v>
@@ -2981,16 +2987,16 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -3007,16 +3013,16 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G61" t="s">
         <v>65</v>
@@ -3033,16 +3039,16 @@
         <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G62" t="s">
         <v>65</v>
@@ -3059,16 +3065,16 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G63" t="s">
         <v>65</v>
@@ -3085,16 +3091,16 @@
         <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G64" t="s">
         <v>65</v>
@@ -3111,16 +3117,16 @@
         <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G65" t="s">
         <v>65</v>
@@ -3137,16 +3143,16 @@
         <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G66" t="s">
         <v>65</v>
@@ -3163,16 +3169,16 @@
         <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G67" t="s">
         <v>65</v>
@@ -3189,16 +3195,16 @@
         <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G68" t="s">
         <v>65</v>
@@ -3215,16 +3221,16 @@
         <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G69" t="s">
         <v>65</v>
@@ -3241,16 +3247,16 @@
         <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G70" t="s">
         <v>65</v>
@@ -3267,16 +3273,16 @@
         <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G71" t="s">
         <v>65</v>
@@ -3293,16 +3299,16 @@
         <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G72" t="s">
         <v>65</v>
@@ -3319,16 +3325,16 @@
         <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G73" t="s">
         <v>65</v>
@@ -3345,16 +3351,16 @@
         <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G74" t="s">
         <v>65</v>
@@ -3371,16 +3377,16 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G75" t="s">
         <v>65</v>
@@ -3397,16 +3403,16 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G76" t="s">
         <v>65</v>
@@ -3423,16 +3429,16 @@
         <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G77" t="s">
         <v>65</v>
@@ -3449,45 +3455,42 @@
         <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" t="s">
-        <v>19</v>
+        <v>175</v>
+      </c>
+      <c r="C78" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" t="s">
+        <v>285</v>
+      </c>
+      <c r="F78" t="s">
+        <v>127</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="H78" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="I78" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
-      </c>
-      <c r="C79" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>8</v>
-      </c>
-      <c r="I79" t="s">
-        <v>9</v>
-      </c>
-      <c r="J79" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -3495,19 +3498,19 @@
         <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
+        <v>290</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H80" t="s">
         <v>8</v>
@@ -3516,7 +3519,7 @@
         <v>9</v>
       </c>
       <c r="J80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -3524,19 +3527,16 @@
         <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
-      </c>
-      <c r="C81" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H81" t="s">
         <v>8</v>
@@ -3545,7 +3545,7 @@
         <v>9</v>
       </c>
       <c r="J81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -3553,16 +3553,28 @@
         <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>240</v>
+      </c>
+      <c r="C82" t="s">
+        <v>239</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>128</v>
+        <v>89</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
       </c>
       <c r="I82" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="J82" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -3570,16 +3582,28 @@
         <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>136</v>
+        <v>241</v>
+      </c>
+      <c r="C83" t="s">
+        <v>242</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>129</v>
+        <v>90</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>8</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="J83" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -3587,13 +3611,13 @@
         <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E84" t="s">
         <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -3604,13 +3628,13 @@
         <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E85" t="s">
         <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -3621,22 +3645,13 @@
         <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
-      </c>
-      <c r="C86" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>132</v>
-      </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="I86" t="s">
         <v>17</v>
@@ -3647,25 +3662,16 @@
         <v>66</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
-      </c>
-      <c r="C87" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
-      <c r="H87" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -3673,25 +3679,25 @@
         <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="G88" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H88" t="s">
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -3699,16 +3705,25 @@
         <v>66</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="C89" t="s">
+        <v>183</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="F89" t="s">
+        <v>99</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H89" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="I89" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -3716,28 +3731,25 @@
         <v>66</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H90" t="s">
         <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
-      </c>
-      <c r="J90" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -3745,15 +3757,61 @@
         <v>66</v>
       </c>
       <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="G91" t="s">
+        <v>44</v>
+      </c>
+      <c r="H91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" t="s">
+        <v>103</v>
+      </c>
+      <c r="G92" t="s">
+        <v>47</v>
+      </c>
+      <c r="H92" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" t="s">
+        <v>48</v>
+      </c>
+      <c r="J92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" t="s">
         <v>18</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E93" t="s">
         <v>19</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G93" t="s">
         <v>20</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H93" t="s">
         <v>21</v>
       </c>
     </row>
